--- a/components.xlsx
+++ b/components.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelsequeira/repositories/press-molding-robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E3260BE-71B5-BE46-9DB2-7D78DCB83654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0631FAD7-89F0-1449-924E-35480BCB870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="2420" windowWidth="28240" windowHeight="17240" xr2:uid="{9DAA935F-F45F-A142-A042-E4A39899DC65}"/>
+    <workbookView xWindow="6420" yWindow="2420" windowWidth="28240" windowHeight="17240" activeTab="1" xr2:uid="{9DAA935F-F45F-A142-A042-E4A39899DC65}"/>
   </bookViews>
   <sheets>
     <sheet name="Actuators" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
     <t>D0</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Activate to unbrake</t>
   </si>
   <si>
-    <t>Rotational Brake</t>
-  </si>
-  <si>
     <t>Linear Actuator</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>D7</t>
   </si>
   <si>
-    <t>R0/R1?</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -130,6 +124,243 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>Brake Rotation</t>
+  </si>
+  <si>
+    <t>Brake Bobines Molde</t>
+  </si>
+  <si>
+    <t>Brake Indexação Avanço</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>Brake Indexação Recuo</t>
+  </si>
+  <si>
+    <t>Light/Fan</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R0?</t>
+  </si>
+  <si>
+    <t>Turn fans on</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>zero encoder</t>
+  </si>
+  <si>
+    <t>deteccao indexaçao y</t>
+  </si>
+  <si>
+    <t>deteccao limite y</t>
+  </si>
+  <si>
+    <t>deteccao zero y</t>
+  </si>
+  <si>
+    <t>deteccao zero z</t>
+  </si>
+  <si>
+    <t>deteccao limite z</t>
+  </si>
+  <si>
+    <t>deteccao indexacao rotação</t>
+  </si>
+  <si>
+    <t>deteccao indexacao molde</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>error drive z</t>
+  </si>
+  <si>
+    <t>error drive y</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>button presssed ?</t>
+  </si>
+  <si>
+    <t>HandController switch on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inservive signal </t>
+  </si>
+  <si>
+    <t>when machine is on ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betoneira off/on </t>
+  </si>
+  <si>
+    <t>I16</t>
+  </si>
+  <si>
+    <t>I17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betoneira normal/serviço </t>
+  </si>
+  <si>
+    <t>I18</t>
+  </si>
+  <si>
+    <t>IN0</t>
+  </si>
+  <si>
+    <t>Enccoder A-Signal</t>
+  </si>
+  <si>
+    <t>Enccoder B-Signal</t>
+  </si>
+  <si>
+    <t>HandController Selector Button 1</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>HandController Selector Button 2</t>
+  </si>
+  <si>
+    <t>HandController Selector Button 3</t>
+  </si>
+  <si>
+    <t>HandController Selector Button 4</t>
+  </si>
+  <si>
+    <t>HandController Selector Button 5</t>
+  </si>
+  <si>
+    <t>HandController Selector Button 6</t>
+  </si>
+  <si>
+    <t>HandController Selector Button 7</t>
+  </si>
+  <si>
+    <t>HandController Selector Button 8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>HandController Led Button 1</t>
+  </si>
+  <si>
+    <t>Turn led light on/off</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>HandController Led Button 2</t>
+  </si>
+  <si>
+    <t>HandController Led Button 3</t>
+  </si>
+  <si>
+    <t>HandController Led Button 4</t>
+  </si>
+  <si>
+    <t>HandController Led Button 5</t>
+  </si>
+  <si>
+    <t>HandController Led Button 6</t>
+  </si>
+  <si>
+    <t>HandController Led Button 7</t>
+  </si>
+  <si>
+    <t>HandController Led Button 8</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
   </si>
 </sst>
 </file>
@@ -153,7 +384,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -161,12 +392,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,12 +490,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05B4D202-0BC8-6746-A267-CD93638D46C0}" name="Tabela1" displayName="Tabela1" ref="B2:D32" totalsRowShown="0">
-  <autoFilter ref="B2:D32" xr:uid="{05B4D202-0BC8-6746-A267-CD93638D46C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05B4D202-0BC8-6746-A267-CD93638D46C0}" name="Tabela1" displayName="Tabela1" ref="B2:D58" totalsRowShown="0">
+  <autoFilter ref="B2:D58" xr:uid="{05B4D202-0BC8-6746-A267-CD93638D46C0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{28EEFEE8-E345-B14F-9425-0E1558B01D84}" name="Actuator"/>
     <tableColumn id="2" xr3:uid="{943E86C4-EBE9-434C-872A-18A1C2C3611E}" name="Output"/>
     <tableColumn id="3" xr3:uid="{F9D94E39-BEB5-D941-8222-A2AD4312041E}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FD4D9F34-A553-424F-9C74-D46CEBEB1759}" name="Tabela16" displayName="Tabela16" ref="B2:D35" totalsRowShown="0">
+  <autoFilter ref="B2:D35" xr:uid="{FD4D9F34-A553-424F-9C74-D46CEBEB1759}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B2597ABA-800A-4C4C-AE3C-851F2A706194}" name="Sensor"/>
+    <tableColumn id="2" xr3:uid="{403ECE7E-3610-D747-B4BE-05675DE27F7C}" name="Input"/>
+    <tableColumn id="3" xr3:uid="{CE3F3729-11B4-2F46-B3CE-7102109B9673}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -493,16 +810,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE52559-2158-1C49-82DD-BFA70CDD304F}">
-  <dimension ref="B2:D27"/>
+  <dimension ref="B2:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
     <col min="3" max="3" width="30.83203125" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
@@ -510,13 +827,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
@@ -575,29 +892,29 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -605,7 +922,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -635,25 +952,275 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
         <v>23</v>
       </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -665,12 +1232,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5ACEECC-7B16-4A48-A24A-13F60F09839C}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>